--- a/Team-Data/2013-14/12-22-2013-14.xlsx
+++ b/Team-Data/2013-14/12-22-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
@@ -756,7 +823,7 @@
         <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>10</v>
@@ -765,7 +832,7 @@
         <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -807,7 +874,7 @@
         <v>22</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -848,52 +915,52 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
         <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>0.414</v>
+        <v>0.429</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="J3" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.452</v>
+        <v>0.455</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O3" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="P3" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R3" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="S3" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T3" t="n">
         <v>41.4</v>
@@ -905,43 +972,43 @@
         <v>16</v>
       </c>
       <c r="W3" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X3" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Y3" t="n">
         <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA3" t="n">
         <v>18.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.9</v>
+        <v>-1</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
         <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>26</v>
@@ -950,34 +1017,34 @@
         <v>12</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM3" t="n">
         <v>25</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
         <v>23</v>
       </c>
       <c r="AU3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV3" t="n">
         <v>24</v>
@@ -986,7 +1053,7 @@
         <v>27</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1001,7 +1068,7 @@
         <v>24</v>
       </c>
       <c r="BC3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-4.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
         <v>24</v>
@@ -1159,7 +1226,7 @@
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV4" t="n">
         <v>9</v>
@@ -1174,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA4" t="n">
         <v>8</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -1290,28 +1357,28 @@
         <v>-1.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
         <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
         <v>30</v>
@@ -1365,7 +1432,7 @@
         <v>30</v>
       </c>
       <c r="BC5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>-1.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>20</v>
@@ -1490,7 +1557,7 @@
         <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
@@ -1523,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
         <v>27</v>
@@ -1547,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="BC6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>-5.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>20</v>
@@ -1711,13 +1778,13 @@
         <v>15</v>
       </c>
       <c r="AW7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
         <v>5</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1872,16 +1939,16 @@
         <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
       </c>
       <c r="AR8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS8" t="n">
         <v>22</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>21</v>
       </c>
       <c r="AT8" t="n">
         <v>26</v>
@@ -1896,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>0.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
@@ -2033,7 +2100,7 @@
         <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>7</v>
@@ -2054,7 +2121,7 @@
         <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
@@ -2072,7 +2139,7 @@
         <v>15</v>
       </c>
       <c r="AV9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW9" t="n">
         <v>20</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2315,7 @@
         <v>26</v>
       </c>
       <c r="AT10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU10" t="n">
         <v>23</v>
@@ -2263,19 +2330,19 @@
         <v>9</v>
       </c>
       <c r="AY10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
         <v>12</v>
       </c>
       <c r="BA10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB10" t="n">
         <v>15</v>
       </c>
       <c r="BC10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -2400,7 +2467,7 @@
         <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
         <v>9</v>
@@ -2430,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>12</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>4.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
@@ -2579,7 +2646,7 @@
         <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2624,7 +2691,7 @@
         <v>15</v>
       </c>
       <c r="AX12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -2668,70 +2735,70 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
         <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J13" t="n">
-        <v>79.5</v>
+        <v>79.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L13" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M13" t="n">
         <v>19.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.371</v>
+        <v>0.368</v>
       </c>
       <c r="O13" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="P13" t="n">
         <v>23.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.783</v>
+        <v>0.787</v>
       </c>
       <c r="R13" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>34.6</v>
+        <v>34.2</v>
       </c>
       <c r="T13" t="n">
-        <v>44.3</v>
+        <v>43.9</v>
       </c>
       <c r="U13" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V13" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W13" t="n">
         <v>7.4</v>
       </c>
       <c r="X13" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Z13" t="n">
         <v>19.7</v>
@@ -2740,34 +2807,34 @@
         <v>22</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF13" t="n">
         <v>2</v>
       </c>
-      <c r="AF13" t="n">
-        <v>1</v>
-      </c>
       <c r="AG13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL13" t="n">
         <v>19</v>
@@ -2779,13 +2846,13 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP13" t="n">
         <v>12</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR13" t="n">
         <v>25</v>
@@ -2794,22 +2861,22 @@
         <v>4</v>
       </c>
       <c r="AT13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>18</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -2850,37 +2917,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.679</v>
       </c>
       <c r="H14" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>37.9</v>
+        <v>37.6</v>
       </c>
       <c r="J14" t="n">
-        <v>81.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L14" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.336</v>
+        <v>0.34</v>
       </c>
       <c r="O14" t="n">
         <v>21.2</v>
@@ -2889,49 +2956,49 @@
         <v>29.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.718</v>
+        <v>0.716</v>
       </c>
       <c r="R14" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="S14" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="T14" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U14" t="n">
         <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z14" t="n">
         <v>22.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>105.1</v>
+        <v>104.5</v>
       </c>
       <c r="AC14" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE14" t="n">
         <v>6</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2940,16 +3007,16 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2958,10 +3025,10 @@
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
@@ -2973,7 +3040,7 @@
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
         <v>15</v>
@@ -2982,13 +3049,13 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>-3.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG16" t="n">
         <v>20</v>
@@ -3307,7 +3374,7 @@
         <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
         <v>22</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
         <v>26</v>
@@ -3346,7 +3413,7 @@
         <v>16</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW16" t="n">
         <v>23</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3513,7 +3580,7 @@
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3725,7 +3792,7 @@
         <v>16</v>
       </c>
       <c r="BA18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -3760,106 +3827,106 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
       </c>
       <c r="F19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
-        <v>0.464</v>
+        <v>0.481</v>
       </c>
       <c r="H19" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>38.1</v>
+        <v>37.9</v>
       </c>
       <c r="J19" t="n">
-        <v>89.8</v>
+        <v>89.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.425</v>
+        <v>0.423</v>
       </c>
       <c r="L19" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M19" t="n">
         <v>23.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.334</v>
+        <v>0.336</v>
       </c>
       <c r="O19" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="P19" t="n">
         <v>26.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.797</v>
+        <v>0.799</v>
       </c>
       <c r="R19" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="S19" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T19" t="n">
-        <v>46.1</v>
+        <v>45.8</v>
       </c>
       <c r="U19" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V19" t="n">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="W19" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X19" t="n">
         <v>2.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="AA19" t="n">
         <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>105.6</v>
+        <v>105.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
         <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
         <v>13</v>
@@ -3871,7 +3938,7 @@
         <v>26</v>
       </c>
       <c r="AO19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3886,13 +3953,13 @@
         <v>15</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AW19" t="n">
         <v>3</v>
@@ -3901,7 +3968,7 @@
         <v>30</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ19" t="n">
         <v>1</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -4035,7 +4102,7 @@
         <v>5</v>
       </c>
       <c r="AI20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ20" t="n">
         <v>4</v>
@@ -4089,7 +4156,7 @@
         <v>22</v>
       </c>
       <c r="BA20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB20" t="n">
         <v>12</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4268,7 +4335,7 @@
         <v>7</v>
       </c>
       <c r="AZ21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -4306,61 +4373,61 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" t="n">
         <v>22</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.846</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="J22" t="n">
-        <v>83.2</v>
+        <v>83.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.467</v>
+        <v>0.47</v>
       </c>
       <c r="L22" t="n">
         <v>6.5</v>
       </c>
       <c r="M22" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O22" t="n">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="P22" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.826</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R22" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S22" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="T22" t="n">
         <v>47.4</v>
       </c>
       <c r="U22" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="V22" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W22" t="n">
         <v>8.300000000000001</v>
@@ -4369,22 +4436,22 @@
         <v>6.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.7</v>
+        <v>106</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4393,37 +4460,37 @@
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM22" t="n">
         <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>2</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>12</v>
@@ -4435,25 +4502,25 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV22" t="n">
         <v>26</v>
       </c>
       <c r="AW22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA22" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
         <v>25</v>
@@ -4581,7 +4648,7 @@
         <v>10</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>17</v>
@@ -4626,10 +4693,10 @@
         <v>17</v>
       </c>
       <c r="AX23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
         <v>15</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>25</v>
@@ -4799,7 +4866,7 @@
         <v>8</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="n">
         <v>8</v>
@@ -4942,16 +5009,16 @@
         <v>8</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
         <v>20</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL25" t="n">
         <v>2</v>
@@ -4975,7 +5042,7 @@
         <v>18</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
         <v>21</v>
@@ -4999,7 +5066,7 @@
         <v>20</v>
       </c>
       <c r="BA25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>6.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
       </c>
       <c r="AF26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH26" t="n">
         <v>16</v>
@@ -5133,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
@@ -5151,16 +5218,16 @@
         <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR26" t="n">
         <v>4</v>
       </c>
       <c r="AS26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU26" t="n">
         <v>5</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5312,7 +5379,7 @@
         <v>18</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK27" t="n">
         <v>22</v>
@@ -5324,10 +5391,10 @@
         <v>18</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP27" t="n">
         <v>9</v>
@@ -5345,13 +5412,13 @@
         <v>22</v>
       </c>
       <c r="AU27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -5476,10 +5543,10 @@
         <v>7.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF28" t="n">
         <v>4</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5539,7 +5606,7 @@
         <v>25</v>
       </c>
       <c r="AY28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
         <v>14</v>
       </c>
       <c r="G29" t="n">
-        <v>0.44</v>
+        <v>0.417</v>
       </c>
       <c r="H29" t="n">
         <v>49</v>
@@ -5598,40 +5665,40 @@
         <v>36.3</v>
       </c>
       <c r="J29" t="n">
-        <v>83.90000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L29" t="n">
         <v>7.4</v>
       </c>
       <c r="M29" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="O29" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="P29" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.783</v>
+        <v>0.781</v>
       </c>
       <c r="R29" t="n">
         <v>12.2</v>
       </c>
       <c r="S29" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T29" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U29" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="V29" t="n">
         <v>14.9</v>
@@ -5640,43 +5707,43 @@
         <v>7.2</v>
       </c>
       <c r="X29" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y29" t="n">
         <v>5</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
         <v>14</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH29" t="n">
         <v>4</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>23</v>
@@ -5688,49 +5755,49 @@
         <v>13</v>
       </c>
       <c r="AN29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ29" t="n">
         <v>6</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>5</v>
       </c>
       <c r="AR29" t="n">
         <v>7</v>
       </c>
       <c r="AS29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT29" t="n">
         <v>14</v>
       </c>
       <c r="AU29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW29" t="n">
         <v>21</v>
       </c>
       <c r="AX29" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BA29" t="n">
         <v>4</v>
       </c>
       <c r="BB29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC29" t="n">
         <v>14</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5919,7 @@
         <v>29</v>
       </c>
       <c r="AH30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI30" t="n">
         <v>27</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>22</v>
@@ -5894,7 +5961,7 @@
         <v>25</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>22</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6098,7 @@
         <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
         <v>2</v>
@@ -6073,7 +6140,7 @@
         <v>17</v>
       </c>
       <c r="AU31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV31" t="n">
         <v>21</v>
@@ -6094,7 +6161,7 @@
         <v>21</v>
       </c>
       <c r="BB31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-22-2013-14</t>
+          <t>2013-12-22</t>
         </is>
       </c>
     </row>
